--- a/data/publications/orcid/export_to_manual/Instytut_Psychologii_Polskiej_Akademii_Nauk_titles.xlsx
+++ b/data/publications/orcid/export_to_manual/Instytut_Psychologii_Polskiej_Akademii_Nauk_titles.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,331 +436,320 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>orcid</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>link</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>title</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>journal</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
+      <c r="A2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B2" t="inlineStr">
         <is>
           <t>Amadeusz Dawid Citlak</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t xml:space="preserve">https://orcid.org/0000-0001-6550-1891 </t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>The problem of mind and mental acts in the perspective of psychology in the Lvov-Warsaw School</t>
-        </is>
-      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2019-09-26</t>
+          <t xml:space="preserve">Dehumanizacja – patologia czy permanentny stan ludzkiego umysłu? Spojrzenie z perspektywy psychologii poznania społecznego </t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Philosophical Psychology</t>
+          <t>2018-02-09</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Amadeusz_Dawid_Citlak_1</t>
+          <t>Studia nad autorytaryzmem i totalitaryzmem,</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Amadeusz_Dawid_Citlak_8</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Amadeusz Dawid Citlak</t>
-        </is>
+      <c r="A3" t="n">
+        <v>31</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0001-6550-1891 </t>
+          <t>Ewa Domaradzka-Woropińska</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>https://orcid.org/0000-0003-4654-9851</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dehumanizacja – patologia czy permanentny stan ludzkiego umysłu? Spojrzenie z perspektywy psychologii poznania społecznego </t>
-        </is>
-      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2018-02-09</t>
+          <t>To Bridge the Chasm Between Personality Psychology and Clinical Psychology: Some Insights from the Systemic Perspective</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Studia nad autorytaryzmem i totalitaryzmem,</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Amadeusz_Dawid_Citlak_8</t>
+          <t>European Journal of Personality</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Ewa_Domaradzka-Woropińska_6</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Ewa Domaradzka-Woropińska</t>
-        </is>
+      <c r="A4" t="n">
+        <v>78</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://orcid.org/0000-0003-4654-9851</t>
+          <t>Łukasz Gawęda</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://orcid.org/0000-0001-6578-1846 </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>To Bridge the Chasm Between Personality Psychology and Clinical Psychology: Some Insights from the Systemic Perspective</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2018</t>
+          <t>Psychologiczne mechanizmy powstawania urojeń</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>European Journal of Personality</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Ewa_Domaradzka-Woropińska_6</t>
+          <t>Psychiatria</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Łukasz_Gawęda_31</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Łukasz Gawęda</t>
-        </is>
+      <c r="A5" t="n">
+        <v>93</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0001-6578-1846 </t>
+          <t>Katarzyna Hamer-Den Heyer</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t xml:space="preserve">https://orcid.org/0000-0003-1964-7763 </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Psychologiczne mechanizmy powstawania urojeń</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Multiple social identifications and their relation to life satisfaction, physical well-being, and feeling of discrimination in the cross-cultural context</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>2017</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Psychiatria</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Łukasz_Gawęda_31</t>
+          <t>Fides et Ratio</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Katarzyna_Hamer-Den_Heyer_9</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Katarzyna Hamer-Den Heyer</t>
-        </is>
+      <c r="A6" t="n">
+        <v>156</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">https://orcid.org/0000-0003-1964-7763 </t>
+          <t>Wojciech Pisula</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>https://orcid.org/0000-0001-5777-0549</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Multiple social identifications and their relation to life satisfaction, physical well-being, and feeling of discrimination in the cross-cultural context</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>2017</t>
+          <t>Behavioural Response to the Environmental Changes of Various Types in Lister-Hooded Male Rats.</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fides et Ratio</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Katarzyna_Hamer-Den_Heyer_9</t>
+          <t>Scientific Reports</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Wojciech_Pisula_8</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
+      <c r="A7" t="n">
+        <v>157</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Wojciech Pisula</t>
         </is>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5777-0549</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Behavioural Response to the Environmental Changes of Various Types in Lister-Hooded Male Rats.</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Domestication and the role of social play on the development of socio-cognitive skills in rats.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>2019</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Scientific Reports</t>
-        </is>
-      </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Wojciech_Pisula_8</t>
+          <t>International Journal of Comparative Psychology</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Wojciech_Pisula_9</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
+      <c r="A8" t="n">
+        <v>161</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Wojciech Pisula</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>https://orcid.org/0000-0001-5777-0549</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>empty</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Domestication and the role of social play on the development of socio-cognitive skills in rats.</t>
-        </is>
-      </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>2019</t>
+          <t>Dary z dotyku</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>International Journal of Comparative Psychology</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Wojciech_Pisula_9</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Wojciech Pisula</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://orcid.org/0000-0001-5777-0549</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>empty</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Dary z dotyku</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>2018</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
           <t>ACADEMIA-magazyn Polskiej Akademii Nauk</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>Wojciech_Pisula_13</t>
         </is>
